--- a/tarefa-2-AVL/food-nutrition-information.xlsx
+++ b/tarefa-2-AVL/food-nutrition-information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafaa\drive\rafa\git\estrutura-de-dados-2\tarefa-2-AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A77E23-3B90-4287-97A0-7EA0C6BA2851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD466E8-CFE8-4375-B4DB-C9503FFAD0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
